--- a/trigger info.xlsx
+++ b/trigger info.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="91">
   <si>
     <t>Triggers</t>
   </si>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t>request_values_table</t>
+  </si>
+  <si>
+    <t>No triggers info foundd</t>
   </si>
 </sst>
 </file>
@@ -713,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1346,7 +1349,7 @@
         <v>89</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="D50" s="2">
         <v>43096</v>

--- a/trigger info.xlsx
+++ b/trigger info.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
   <si>
     <t>Triggers</t>
   </si>
@@ -364,9 +364,6 @@
   </si>
   <si>
     <t>request_values_table</t>
-  </si>
-  <si>
-    <t>No triggers info foundd</t>
   </si>
 </sst>
 </file>
@@ -1349,7 +1346,7 @@
         <v>89</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="D50" s="2">
         <v>43096</v>

--- a/trigger info.xlsx
+++ b/trigger info.xlsx
@@ -714,7 +714,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/trigger info.xlsx
+++ b/trigger info.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>Table Name</t>
   </si>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t>changed</t>
+  </si>
+  <si>
+    <t>pavani</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -643,9 +646,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -725,7 +728,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -753,10 +756,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1012,9 +1015,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1302,7 +1305,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1330,10 +1333,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2302,7 +2305,9 @@
       <c r="A51" t="s" s="3">
         <v>90</v>
       </c>
-      <c r="B51" s="3"/>
+      <c r="B51" t="s" s="3">
+        <v>91</v>
+      </c>
       <c r="C51" s="4"/>
       <c r="D51" s="5"/>
       <c r="E51" s="4"/>

--- a/trigger info.xlsx
+++ b/trigger info.xlsx
@@ -363,10 +363,10 @@
     <t>request_values_table</t>
   </si>
   <si>
-    <t>changed</t>
-  </si>
-  <si>
-    <t>pavani</t>
+    <t>changed 2</t>
+  </si>
+  <si>
+    <t>pavani 2</t>
   </si>
 </sst>
 </file>

--- a/trigger info.xlsx
+++ b/trigger info.xlsx
@@ -363,10 +363,10 @@
     <t>request_values_table</t>
   </si>
   <si>
-    <t>changed 2</t>
-  </si>
-  <si>
-    <t>pavani 2</t>
+    <t>changed 3</t>
+  </si>
+  <si>
+    <t>pavani 3</t>
   </si>
 </sst>
 </file>

--- a/trigger info.xlsx
+++ b/trigger info.xlsx
@@ -363,10 +363,10 @@
     <t>request_values_table</t>
   </si>
   <si>
-    <t>changed 3</t>
-  </si>
-  <si>
-    <t>pavani 3</t>
+    <t>changed new</t>
+  </si>
+  <si>
+    <t>pavani new</t>
   </si>
 </sst>
 </file>

--- a/trigger info.xlsx
+++ b/trigger info.xlsx
@@ -363,10 +363,10 @@
     <t>request_values_table</t>
   </si>
   <si>
-    <t>changed new</t>
-  </si>
-  <si>
-    <t>pavani new</t>
+    <t>changed new 1</t>
+  </si>
+  <si>
+    <t>pavani new 1</t>
   </si>
 </sst>
 </file>
